--- a/Summary Man-Day.xlsx
+++ b/Summary Man-Day.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Module</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>Batch - Write Off</t>
+  </si>
+  <si>
+    <t>Activity Log - Siebel</t>
+  </si>
+  <si>
+    <t>Exempt Log - Siebel</t>
+  </si>
+  <si>
+    <t>Exempt BL/DL - SSFCC</t>
+  </si>
+  <si>
+    <t>Exempt Credit Limit - SSFCC</t>
   </si>
 </sst>
 </file>
@@ -90,8 +102,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +490,42 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
       <c r="B8">
-        <f>SUM(B2:B6)</f>
-        <v>18</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Summary Man-Day.xlsx
+++ b/Summary Man-Day.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Module</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Exempt Credit Limit - SSFCC</t>
+  </si>
+  <si>
+    <t>Blacklist/Deblacklist - SFF</t>
   </si>
 </sst>
 </file>
@@ -95,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -466,66 +470,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>SUM(B2:B10)</f>
-        <v>28</v>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Summary Man-Day.xlsx
+++ b/Summary Man-Day.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>SUM(B2:B11)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
